--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/102.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/102.xlsx
@@ -479,13 +479,13 @@
         <v>-17.02671823296951</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69223769092278</v>
+        <v>-10.69298395218476</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.000709339305219</v>
+        <v>-4.045707584172232</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.817963433999201</v>
+        <v>-6.757529364081794</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.73790868071004</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05050855818661</v>
+        <v>-11.0503776351582</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.040143355464497</v>
+        <v>-4.09424075080651</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.821053217469848</v>
+        <v>-6.769155329005247</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.25703088427156</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88312664970902</v>
+        <v>-11.88502503362107</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.794466292639508</v>
+        <v>-3.841703321292456</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.654440571506043</v>
+        <v>-6.602320113893131</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.79439624480714</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73868245581014</v>
+        <v>-12.73423107284395</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.878819999848749</v>
+        <v>-3.939227885160473</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.001347319903259</v>
+        <v>-6.941777341973404</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.35481946780288</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.45586571317705</v>
+        <v>-13.44498600951558</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.633548798411853</v>
+        <v>-3.692424884291095</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.558748930035867</v>
+        <v>-6.507793687375869</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.998474051774517</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.14689054946619</v>
+        <v>-14.13531695375411</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.685616886813397</v>
+        <v>-3.751248600958971</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.730598497136363</v>
+        <v>-6.680389515738343</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.728672791680424</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.76576370479459</v>
+        <v>-14.74756540384459</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.511672551258225</v>
+        <v>-3.570182052657899</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.411185584706772</v>
+        <v>-6.376634997507457</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.547230398587319</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.67947552011865</v>
+        <v>-15.65991561967311</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.354564917157512</v>
+        <v>-3.415640509914164</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.188446236460487</v>
+        <v>-6.17353410352376</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.42544891722123</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.33123654018545</v>
+        <v>-16.31148025519729</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.342519998543124</v>
+        <v>-3.407575651363661</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.756086027415325</v>
+        <v>-5.737049819083455</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.347582790883645</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.87314004710734</v>
+        <v>-16.839584474924</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.198478482678454</v>
+        <v>-3.258231752848092</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.524587928567924</v>
+        <v>-5.503378397964329</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.292391726306147</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.49524700123764</v>
+        <v>-17.46629991965458</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.323968205416398</v>
+        <v>-3.373457110158123</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.928652487818237</v>
+        <v>-4.906317019170253</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.241006398213036</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.38820751655756</v>
+        <v>-18.36279535674177</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.101765641586624</v>
+        <v>-3.15248522279547</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.2813690353233</v>
+        <v>-4.261573473426611</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.190337761015229</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.11297121726983</v>
+        <v>-19.09796743821322</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.98485137721001</v>
+        <v>-3.036029189018317</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.729030963036561</v>
+        <v>-3.693577006941167</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.142483137195659</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.88041582524614</v>
+        <v>-19.85408720423142</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.909832481926919</v>
+        <v>-2.963772769634831</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.131314969100399</v>
+        <v>-3.096842935718135</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1064896327672884</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.74391865917218</v>
+        <v>-20.70673651910167</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.898939685962603</v>
+        <v>-2.960866278403968</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.533677528981288</v>
+        <v>-2.482381886447405</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8965010719740122</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.45908570190146</v>
+        <v>-21.41891851678305</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.819718161467319</v>
+        <v>-2.881605477000158</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.112930192556737</v>
+        <v>-2.062289165164941</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.83098608210321</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.36883054946448</v>
+        <v>-22.32421198137988</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.722704197410128</v>
+        <v>-2.788204988527284</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.88137972449797</v>
+        <v>-1.840793585688619</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.657435549377646</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.21236762155689</v>
+        <v>-23.16626962325117</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.738270945488941</v>
+        <v>-2.798115861778471</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.418134773049176</v>
+        <v>-1.362204455309323</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.336504698411302</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.01051367969704</v>
+        <v>-23.96808152618701</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.516971750555245</v>
+        <v>-2.574250575487797</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.177681539058035</v>
+        <v>-1.131190771667066</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.830076352359078</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.46416197316285</v>
+        <v>-24.4161394063394</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.358018101753849</v>
+        <v>-2.412809389146473</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.787413083649023</v>
+        <v>-0.7405426394756437</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.113755730371704</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.12673723537692</v>
+        <v>-25.0789765146103</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.151853608905189</v>
+        <v>-2.198684776170043</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6288391116300369</v>
+        <v>-0.6031781980602537</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.181609407299102</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.69536213239877</v>
+        <v>-25.64929031869873</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.147284395213426</v>
+        <v>-2.193015809039575</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2608144787491171</v>
+        <v>-0.2218386931892986</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.042828293395166</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.1334567700886</v>
+        <v>-26.08786937159372</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.096538629398896</v>
+        <v>-2.134820522908103</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2996986181890435</v>
+        <v>-0.2670987841131456</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.723761707679162</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.40967817544334</v>
+        <v>-26.36360636174331</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.749304573430637</v>
+        <v>-1.785648806119269</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2781225031058789</v>
+        <v>-0.2498431289677506</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.263237765360412</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.32863682085306</v>
+        <v>-26.27947522368238</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.652958316818375</v>
+        <v>-1.682023229127007</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4374558286896852</v>
+        <v>-0.4094252083055497</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.705295004685904</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.25827878538162</v>
+        <v>-26.19355044013213</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.727702273741789</v>
+        <v>-1.754894986744054</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3895903695003347</v>
+        <v>-0.3733035447652275</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.095678315611464</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.41937957184906</v>
+        <v>-26.36526908420421</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.444581224789463</v>
+        <v>-1.472192891482663</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7233000766330905</v>
+        <v>-0.7092127587753932</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.478515964448309</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.34216116968856</v>
+        <v>-26.27570464046396</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.358905194993208</v>
+        <v>-1.379617218088818</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.793671204407368</v>
+        <v>-0.7838912541845987</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8898380112210061</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.15151105570735</v>
+        <v>-26.0912210011212</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.438650411602161</v>
+        <v>-1.459244603972196</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9337195679053119</v>
+        <v>-0.9268853858219308</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.354646893599335</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.81294410422031</v>
+        <v>-25.75519395638545</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.352215028241086</v>
+        <v>-1.371342882692847</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.414364189830759</v>
+        <v>-1.411549344719788</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.1130817046123354</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.83357757349887</v>
+        <v>-25.76877067443233</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.186453381961992</v>
+        <v>-1.202020130040804</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.71238427941697</v>
+        <v>-1.701609314178229</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.5106517667483285</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.48119824251381</v>
+        <v>-25.41952040382644</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.158920269085842</v>
+        <v>-1.171135387637172</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.215521477624502</v>
+        <v>-2.201421067463964</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.8434861957440014</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.92491938707171</v>
+        <v>-24.87545666693567</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.181727060636129</v>
+        <v>-1.190420349723035</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.317484332155865</v>
+        <v>-2.308005504898456</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.124138013544111</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.51489464667454</v>
+        <v>-24.45855846754659</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.3498976906381</v>
+        <v>-1.357451949377776</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.52277164071413</v>
+        <v>-2.522064656360677</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.37011728092169</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86270158061395</v>
+        <v>-23.81120955353745</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.348889583319287</v>
+        <v>-1.356915164961265</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.70822411046718</v>
+        <v>-2.718265906746784</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.59852703369068</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.10033678614024</v>
+        <v>-23.0530081113674</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.331529189751158</v>
+        <v>-1.336006757323029</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.847081074406526</v>
+        <v>-2.845405259642785</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.825520387755569</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.71364252940702</v>
+        <v>-22.67286000605505</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.406207685160364</v>
+        <v>-1.412845482701119</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.162566295983599</v>
+        <v>-3.154462160524571</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.064656223923747</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.08547383906101</v>
+        <v>-22.02853541400234</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.314090242365979</v>
+        <v>-1.326933791453712</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.392375487764417</v>
+        <v>-3.382503891421756</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.32560701613854</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.59735351221293</v>
+        <v>-21.54074239472531</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.481409872683239</v>
+        <v>-1.49568048278072</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.623716478977717</v>
+        <v>-3.613661590395271</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.616583665647759</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.12325504170835</v>
+        <v>-21.09714898984195</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.389580460551372</v>
+        <v>-1.411418421691371</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.62526137071304</v>
+        <v>-3.617641650459156</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.939684756123602</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.31163700394406</v>
+        <v>-20.26226592992792</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.113751824281887</v>
+        <v>-1.138404630532857</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.738666897928072</v>
+        <v>-3.725980456474439</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.289340239643171</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.47938549690122</v>
+        <v>-19.44864476982885</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.122549851791527</v>
+        <v>-1.146037443089583</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.876607400668497</v>
+        <v>-3.866185927606483</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.657954606549275</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.05584949997138</v>
+        <v>-19.02269978917613</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.140800521952893</v>
+        <v>-1.167809942715374</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.104203993269063</v>
+        <v>-4.090692736736402</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.03869986527121</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.56234823665536</v>
+        <v>-18.53901775299141</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.130745633370447</v>
+        <v>-1.15655056227149</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.214048414111145</v>
+        <v>-4.20513255587593</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.422131870772222</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.10123733056977</v>
+        <v>-18.08944116570937</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.095186938852319</v>
+        <v>-1.120258698794225</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.344487027323262</v>
+        <v>-4.346385411235312</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.799682137686619</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.34433202638106</v>
+        <v>-17.3240127723707</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.184934674832352</v>
+        <v>-1.214510186951811</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.656005281139292</v>
+        <v>-4.649419852809904</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.172879084005635</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.50188161542451</v>
+        <v>-16.47692768620819</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.111748701947103</v>
+        <v>-1.13941273785167</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.601253270655193</v>
+        <v>-4.60372771589228</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.542914792301443</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85966488412932</v>
+        <v>-15.85277833283458</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.051746678023472</v>
+        <v>-1.090499894434982</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.835081799408421</v>
+        <v>-4.830538770322343</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.908533540512139</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.984025485469</v>
+        <v>-14.96433466199505</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.013569522936999</v>
+        <v>-1.046339556949839</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954968016530107</v>
+        <v>-4.954391955205071</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.275576202075323</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.18665187319652</v>
+        <v>-14.17247290921893</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.014918030129697</v>
+        <v>-1.046601403006674</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.140551409311573</v>
+        <v>-5.136479703127797</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.64704863782836</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.48260019557986</v>
+        <v>-13.44946357708745</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9597208813489798</v>
+        <v>-0.9937608687374676</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.043183953077657</v>
+        <v>-5.034569217807801</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.021396420410585</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.78180850137078</v>
+        <v>-12.75269121985079</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9523760994547714</v>
+        <v>-0.991207869683331</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.122209093030316</v>
+        <v>-5.115388003249777</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.399261697580887</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.41476579120299</v>
+        <v>-12.38965475435256</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.150240072301778</v>
+        <v>-1.188089919817208</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.293692075651244</v>
+        <v>-5.284880955838762</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.784111309120259</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.7320414749155</v>
+        <v>-11.7157546501804</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.238050147461234</v>
+        <v>-1.27783765579724</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.771377837134461</v>
+        <v>-5.765564854672735</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.174539037357848</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.30972306214995</v>
+        <v>-11.29231029937045</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.250474742858032</v>
+        <v>-1.2930116347908</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.903963588012621</v>
+        <v>-5.898896866812873</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.564202211893642</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.53442307246861</v>
+        <v>-10.51938001650347</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.239018977871522</v>
+        <v>-1.281961731192383</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.36148720311958</v>
+        <v>-6.353736559837278</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.956560911123292</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.07107338259709</v>
+        <v>-10.04285946997317</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.438781334630578</v>
+        <v>-1.485704148015325</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.209315367190197</v>
+        <v>-6.195149495515451</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.346463524673732</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.498442240905671</v>
+        <v>-9.479536955602219</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.4289359228936</v>
+        <v>-1.474182921514606</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.435079037392923</v>
+        <v>-6.418713658840765</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.722539134954621</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.211746993277554</v>
+        <v>-9.188953294030108</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.509217923919065</v>
+        <v>-1.551492969794998</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.31961801863174</v>
+        <v>-6.298251380394043</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.07854162900679</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.58708704009312</v>
+        <v>-8.55113557648974</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.588151417751831</v>
+        <v>-1.637731968613448</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.72231106943755</v>
+        <v>-6.714809179909241</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.40625543647809</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.014678467550015</v>
+        <v>-7.976894081548792</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.507817047515</v>
+        <v>-1.551427508280789</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.591479687140182</v>
+        <v>-6.578832522595074</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.69328047733358</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.550281393451149</v>
+        <v>-7.51584863697741</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.492904914578274</v>
+        <v>-1.545234849036653</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.659821507973992</v>
+        <v>-6.642683683554172</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.92844572815181</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.139196176523792</v>
+        <v>-7.092849424464082</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.635990692335498</v>
+        <v>-1.685950919979525</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.834629935516719</v>
+        <v>-6.820450971539129</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.10840900616311</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.708996197447515</v>
+        <v>-6.664089598700395</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.521433042470395</v>
+        <v>-1.568945009483019</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005929625897863</v>
+        <v>-7.005039349304625</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.22746006277194</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.46608161052213</v>
+        <v>-6.42603225612929</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.681905398401431</v>
+        <v>-1.726131197400782</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.039485198081207</v>
+        <v>-7.033698400225163</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.27739537173088</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.334818182230984</v>
+        <v>-6.288000107268972</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.673081186286108</v>
+        <v>-1.716874939291682</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.096528361562607</v>
+        <v>-7.085753396323866</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.26445038590783</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.059879822554737</v>
+        <v>-6.012446409359163</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.608811071636075</v>
+        <v>-1.640965767415354</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.04968410199491</v>
+        <v>-7.04672524155268</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.19053540807096</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.966060380390927</v>
+        <v>-5.914948030096829</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.887087968536962</v>
+        <v>-1.924911631446709</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.082480320613435</v>
+        <v>-7.083855012411816</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.05409515188716</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.866925463273378</v>
+        <v>-5.809136038529999</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.837507417675346</v>
+        <v>-1.871481943549625</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.824156093243338</v>
+        <v>-6.82204823248582</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.86385132591013</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.606035144546302</v>
+        <v>-5.544488228887348</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.852236258372288</v>
+        <v>-1.884155292700416</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.727273052214565</v>
+        <v>-6.730677050953413</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.63201012402986</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.698676279454356</v>
+        <v>-5.628540813131229</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.933395443688148</v>
+        <v>-1.96511809347365</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.542593028329176</v>
+        <v>-6.550814994513781</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.36736020595334</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.770605391266799</v>
+        <v>-5.700142617372629</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.021218611150446</v>
+        <v>-2.052339015005229</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.3768051974444</v>
+        <v>-6.38333825656242</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.07839047008914</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.971493686070244</v>
+        <v>-5.904330172492189</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.88259730866225</v>
+        <v>-1.913416589551673</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.270823005940627</v>
+        <v>-6.289008214587785</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.780703123102507</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.125603182820202</v>
+        <v>-6.052823071323046</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.143657827326268</v>
+        <v>-2.166006388277094</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.126833859287323</v>
+        <v>-6.143447991593474</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.483235558024871</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.604951666764318</v>
+        <v>-6.530953971102882</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.123233834893175</v>
+        <v>-2.153319946823462</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.889103824287262</v>
+        <v>-5.912093908077333</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.184666607699452</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.065041373228255</v>
+        <v>-7.001452058325992</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.176100553768066</v>
+        <v>-2.203712220461266</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.946186264677188</v>
+        <v>-5.964502396352763</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.895180288803386</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.550124285817048</v>
+        <v>-7.485723248138598</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.125629726313211</v>
+        <v>-2.157286914584505</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.57355314119598</v>
+        <v>-5.594252071988749</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.616300579041717</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.944700108860988</v>
+        <v>-7.885968038313005</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.162759497172346</v>
+        <v>-2.184440350678245</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.412269062488757</v>
+        <v>-5.433059639401417</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.341242416059382</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.32457327581367</v>
+        <v>-8.260722114854572</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.428075014259925</v>
+        <v>-2.452557620573953</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.019722546385283</v>
+        <v>-5.0378946627296</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.067160862429184</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.229146663754207</v>
+        <v>-9.171619085067663</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.352087288566547</v>
+        <v>-2.379227632357445</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.012390856793917</v>
+        <v>-5.036860370805103</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.791812323858549</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.961307515572054</v>
+        <v>-9.912250656824106</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.441560086186903</v>
+        <v>-2.469499060451147</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.84266224275378</v>
+        <v>-4.866765172285398</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.509102177936973</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.71470408259918</v>
+        <v>-10.66978439154922</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.511630090995821</v>
+        <v>-2.525403193585317</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.516087840669766</v>
+        <v>-4.542220077141851</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.212552856577713</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.85560662913572</v>
+        <v>-11.80763643152363</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.591584784450242</v>
+        <v>-2.611275607924198</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.410184202983043</v>
+        <v>-4.43814936185297</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.907266080932995</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.66900522008647</v>
+        <v>-12.62336545238022</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.734552731481891</v>
+        <v>-2.754020985807538</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.044607830733526</v>
+        <v>-4.076304295913345</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.596969808508375</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.70312694464589</v>
+        <v>-13.65300960936776</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.83095135730552</v>
+        <v>-2.849280581283936</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.730287824109367</v>
+        <v>-3.75230907748915</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.283051903324565</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.70056403664279</v>
+        <v>-14.65158573171189</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.866091098132713</v>
+        <v>-2.882155353719511</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.278642652978343</v>
+        <v>-3.306411427305644</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.978408400841978</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.06140417861748</v>
+        <v>-16.02321393122817</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.768998580258472</v>
+        <v>-2.793729940326493</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.028828422455367</v>
+        <v>-3.055628366372381</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.693133413948014</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.48735234262408</v>
+        <v>-17.44221008242581</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.010983613682095</v>
+        <v>-3.026746746303533</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.761719259878472</v>
+        <v>-2.782797867453652</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.434075374614002</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.95746084411581</v>
+        <v>-18.91385038335002</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.207774017696079</v>
+        <v>-3.226574564576798</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.637957721115636</v>
+        <v>-2.653511376891606</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.208014900929745</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.5814562732092</v>
+        <v>-20.54694496291841</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.415705971428373</v>
+        <v>-3.441052669729955</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.700604390213295</v>
+        <v>-2.708643064158115</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.024044916956888</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.05879172586957</v>
+        <v>-22.02134773974223</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.431076334964559</v>
+        <v>-3.443225992001681</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.588468816373911</v>
+        <v>-2.603682072275997</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.885290681319496</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.05081178784387</v>
+        <v>-24.01264772506024</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.637005166362069</v>
+        <v>-3.667968462582751</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.560595303623876</v>
+        <v>-2.572640222238264</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.787524254804785</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.2197088612099</v>
+        <v>-26.1848178741367</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.443173622790314</v>
+        <v>-3.470772197180673</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.716825753434194</v>
+        <v>-2.732601978358474</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.730121377877716</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.39524373211668</v>
+        <v>-28.35862456106837</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.943535252795401</v>
+        <v>-3.977928732360616</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.939892409251522</v>
+        <v>-2.94639928376386</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.703531608809063</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.44191106615234</v>
+        <v>-30.39679499055975</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.924525229069215</v>
+        <v>-3.959010354754321</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.273274808813235</v>
+        <v>-3.280043529382407</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.689381120796545</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.71096425625758</v>
+        <v>-32.66010065971746</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.082208924494964</v>
+        <v>-4.109008868411977</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.357458316085534</v>
+        <v>-3.364266313563231</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.674417816115253</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.21096566849085</v>
+        <v>-35.16613762356078</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.358548160575276</v>
+        <v>-4.392234655787037</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.783089081470048</v>
+        <v>-3.78424120412012</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.644781516086936</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.61066694865366</v>
+        <v>-37.56828716435499</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.216928720736325</v>
+        <v>-4.242864572665784</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.173161152336434</v>
+        <v>-4.181985364451758</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.594445453561893</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.23234822349794</v>
+        <v>-40.19236433061931</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.335767553630673</v>
+        <v>-4.364596804488153</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.423839474846964</v>
+        <v>-4.432755333082179</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.519978723219391</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.67195484272234</v>
+        <v>-42.63423591823532</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.490885157699442</v>
+        <v>-4.519779870071132</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.933090778481582</v>
+        <v>-4.946994804099496</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.438249071572182</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.03943596559166</v>
+        <v>-44.99788099637202</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.580711447496525</v>
+        <v>-4.607419745293647</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.141035824516718</v>
+        <v>-5.145356284454487</v>
       </c>
     </row>
   </sheetData>
